--- a/biology/Zoologie/Dogue_argentin/Dogue_argentin.xlsx
+++ b/biology/Zoologie/Dogue_argentin/Dogue_argentin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le dogue argentin (en espagnol, Dogo argentino) est un molosse de type dogue créé en Argentine au début du XXe siècle. Ce chien de grande taille (60-65 cm), musclé et doté d'une mâchoire puissante est traditionnellement utilisé dans la pampa, dans les montagnes et marais en Argentine pour la chasse au puma et au sanglier. Cette race de chiens fut créée par Antonio Nores Martinez : les premiers croisements eurent lieu en 1920. Malgré ses performances physiques remarquables et sa stature impressionnante, le dogue argentin est facile à éduquer et aboie peu, ce qui en fait un chien adapté à la vie en famille[réf. nécessaire].  
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom d'origine est Dogo Argentino.
 La motivation principale qui a conduit en 1928  Antonio Nores Martinez (1907-1956), créateur de la race, à la création du dogue argentin était de réunir les qualités du Perro de pelea, race de chien de combat renommée à Córdoba, en améliorant sa taille et sa force physique. Ce chien devait ainsi avoir des qualités pour la chasse au sanglier et au puma (à deux ou en meute), animaux faisant partie de la faune qui peuple la Sierra de Córdoba. 
@@ -562,14 +576,16 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce chien peut être utilisé comme chien de garde.
 Courage, équilibre et intelligence sont les qualités qui prédominent chez le dogue argentin[réf. nécessaire]. Sélectionné pour combattre le gros gibier argentin (pumas, sangliers), il prend de son ascendant, le perro de pelea cordobès, le courage indomptable et la prédisposition à la lutte à mort. Du bulldog, du bull-terrier et du mâtin des Pyrénées, le dogue argentin reçoit en héritage un remarquable équilibre psychique[réf. nécessaire] et une intelligence très vive[réf. nécessaire], gardant le côté combattant de son ancêtre espagnol.
 Il cohabite agréablement avec le cheval, la vache et tous les animaux domestiques[réf. nécessaire]. La socialisation entre mâles est primordiale car le dogue argentin a tendance à ne pas s'entendre avec ses congénères. Il ne se déchaîne qu’avec les animaux sauvages[réf. nécessaire].
-Le dogue argentin est un chien affectueux envers son maître, sauf exception[1],[2]  et envers les autres membres de la famille[réf. nécessaire], sauf exception[3]. Il est convivial avec les amis de la maison[réf. nécessaire], sauf exception[4].
+Le dogue argentin est un chien affectueux envers son maître, sauf exception,  et envers les autres membres de la famille[réf. nécessaire], sauf exception. Il est convivial avec les amis de la maison[réf. nécessaire], sauf exception.
 Compte tenu de sa puissance et de sa fermeté de caractère, il demande une bonne éducation pour contenir sa dangerosité.
-C'est un chien qui peut s'avérer très dangereux envers les autres animaux[5] et envers les humains[6],[7],[8],[9]. Notamment, s'il est mis entre les mains de propriétaires irresponsables[réf. nécessaire],[10].
+C'est un chien qui peut s'avérer très dangereux envers les autres animaux et envers les humains. Notamment, s'il est mis entre les mains de propriétaires irresponsables[réf. nécessaire],.
 </t>
         </is>
       </c>
@@ -598,11 +614,13 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce type de chien est introduit en France en 1990[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type de chien est introduit en France en 1990.
 Il n'est pas considéré comme un chien dangereux en France et aucune contrainte législative particulière ne lui est imposée sauf s'il n'est pas rattaché à un livre d'origine (LOF)[réf. nécessaire].
-Le dogue argentin est interdit pour la chasse, en France, depuis 2015[12] comme tous les molossoïdes, pur-sang ou croisés[13]. Cette interdiction vise particulièrement le dogue argentin, après des spectacles de mise à mort de sangliers en enclos, en 2014[14].
+Le dogue argentin est interdit pour la chasse, en France, depuis 2015 comme tous les molossoïdes, pur-sang ou croisés. Cette interdiction vise particulièrement le dogue argentin, après des spectacles de mise à mort de sangliers en enclos, en 2014.
 </t>
         </is>
       </c>
